--- a/data/symulacje.xlsx
+++ b/data/symulacje.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michalkowalik/Desktop/eklapa_predyktor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michalkowalik/Documents/GitHub/symulator_kultura_gry/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B969D4E-B363-4241-BFB1-08C1669E44D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA8E4C3-2B21-034C-9881-8F54B75A967E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,9 +100,6 @@
     <t>Lechia Gdańsk</t>
   </si>
   <si>
-    <t>Legia Warsaw</t>
-  </si>
-  <si>
     <t>Motor Lublin</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
   </si>
   <si>
     <t>Team</t>
+  </si>
+  <si>
+    <t>Legia Warszawa</t>
   </si>
 </sst>
 </file>
@@ -497,14 +497,14 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>9.9000000000000005E-2</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>4.0000000000000002E-4</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>1.6000000000000001E-3</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>7.1999999999999998E-3</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>5.9999999999999995E-4</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>0.12839999999999999</v>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>1.8E-3</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>1E-3</v>
